--- a/George.Regina.xlsx
+++ b/George.Regina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panda/Desktop/Automate forms project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E723A98-AF16-4C4E-94BB-B20F28A5370C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEA1EC-B006-CA42-A71F-C0B0401DAB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="4120" windowWidth="16400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16940" yWindow="5380" windowWidth="16400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="active" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>ACADEMIC YEAR</t>
   </si>
@@ -95,9 +95,6 @@
     </r>
   </si>
   <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -106,12 +103,21 @@
   <si>
     <t>Reappointment</t>
   </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,6 +209,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +346,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,7 +703,7 @@
   <dimension ref="A1:Q5357"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N17" sqref="N16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -779,17 +805,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="44">
-        <v>44105</v>
+        <v>43009</v>
       </c>
       <c r="C3" s="45">
-        <v>44561</v>
+        <v>43100</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -803,10 +829,10 @@
         <v>1632</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="48">
         <v>0.86</v>
@@ -823,19 +849,19 @@
     <row r="4" spans="1:17">
       <c r="A4" s="43"/>
       <c r="B4" s="45">
-        <v>44287</v>
+        <v>43191</v>
       </c>
       <c r="C4" s="45">
-        <v>44377</v>
+        <v>43281</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="47">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I4" s="47">
         <v>0.67</v>
@@ -844,10 +870,10 @@
         <v>1632</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="48">
         <v>0.86</v>
@@ -861,59 +887,116 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+    <row r="5" spans="1:17" ht="14">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="33">
+        <v>43282</v>
+      </c>
+      <c r="C5" s="33">
+        <v>43646</v>
+      </c>
       <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="34">
+        <v>5</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1.67</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1630</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="36">
+        <v>0.71</v>
+      </c>
+      <c r="N5" s="49">
+        <v>6666.67</v>
+      </c>
+      <c r="O5" s="50">
+        <v>60000</v>
+      </c>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="40"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+    <row r="6" spans="1:17" ht="14">
+      <c r="A6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="33">
+        <v>43282</v>
+      </c>
+      <c r="C6" s="33">
+        <v>43646</v>
+      </c>
       <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="E6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="34">
+        <v>8</v>
+      </c>
+      <c r="I6" s="31">
+        <v>2.67</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1630</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="36">
+        <v>0.71</v>
+      </c>
+      <c r="N6" s="49">
+        <v>6666.67</v>
+      </c>
+      <c r="O6" s="50">
+        <v>60000</v>
+      </c>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="40"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
     </row>
@@ -17358,7 +17441,7 @@
   <pageMargins left="0" right="0" top="1" bottom="1" header="0.4" footer="0.5"/>
   <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;LJOE B.
+    <oddHeader>&amp;LGeorge, Regina
 123456789&amp;C&amp;9EMPLOYMENT HISTORY
 &amp;RDEPARTMENT OF ANCIENT RUINS</oddHeader>
     <oddFooter>&amp;L&amp;9#&amp;10 Service Period:     X = primary department
